--- a/UTH_UK_AssesmentPortal/target/classes/TestData.xlsx
+++ b/UTH_UK_AssesmentPortal/target/classes/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Module_1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
   <si>
     <t>TestScript_13</t>
   </si>
@@ -85,10 +85,13 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>john1</t>
-  </si>
-  <si>
-    <t>hp1</t>
+    <t>Shallu@99</t>
+  </si>
+  <si>
+    <t>Darshanmj</t>
+  </si>
+  <si>
+    <t>Darshanmj@2124</t>
   </si>
   <si>
     <t>john</t>
@@ -138,9 +141,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -160,6 +163,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -168,9 +216,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,107 +285,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,37 +328,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,145 +466,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,6 +685,71 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -709,71 +777,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -785,148 +788,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -951,7 +954,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1301,10 +1304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5462962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1318,6 +1321,7 @@
     <col min="7" max="7" width="7.72222222222222" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="15.15"/>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -1462,8 +1466,8 @@
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>6</v>
+      <c r="B16" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>8</v>
@@ -1504,33 +1508,34 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" ht="15.15" spans="1:3">
+    <row r="21" spans="1:3">
       <c r="A21" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="26" ht="15.15"/>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
@@ -1554,7 +1559,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>8</v>
@@ -1568,7 +1573,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>12</v>
@@ -1582,7 +1587,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>12</v>
@@ -1596,7 +1601,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>8</v>
@@ -1605,14 +1610,14 @@
     <row r="34" ht="15.15"/>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="20"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
@@ -1622,16 +1627,16 @@
         <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>4</v>
@@ -1645,16 +1650,16 @@
         <v>19</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>8</v>
@@ -1668,16 +1673,16 @@
         <v>19</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -1691,16 +1696,16 @@
         <v>19</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>12</v>
@@ -1714,22 +1719,26 @@
         <v>19</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" display="Shallu@99"/>
+    <hyperlink ref="B20" r:id="rId2" display="Darshanmj@2124"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>

--- a/UTH_UK_AssesmentPortal/target/classes/TestData.xlsx
+++ b/UTH_UK_AssesmentPortal/target/classes/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
   <si>
     <t>TestScript_13</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>Darshanmj@2124</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>hp</t>
   </si>
   <si>
     <t>TestScript_1</t>
@@ -1306,8 +1300,8 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5462962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1518,20 +1512,20 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" ht="15.15"/>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1559,7 +1553,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>8</v>
@@ -1573,7 +1567,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>12</v>
@@ -1587,7 +1581,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>12</v>
@@ -1601,7 +1595,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>8</v>
@@ -1610,7 +1604,7 @@
     <row r="34" ht="15.15"/>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1627,16 +1621,16 @@
         <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>4</v>
@@ -1650,16 +1644,16 @@
         <v>19</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>8</v>
@@ -1673,16 +1667,16 @@
         <v>19</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -1696,16 +1690,16 @@
         <v>19</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>12</v>
@@ -1719,16 +1713,16 @@
         <v>19</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>8</v>
@@ -1738,6 +1732,7 @@
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1" display="Shallu@99"/>
     <hyperlink ref="B20" r:id="rId2" display="Darshanmj@2124"/>
+    <hyperlink ref="B21" r:id="rId2" display="Darshanmj@2124"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/UTH_UK_AssesmentPortal/target/classes/TestData.xlsx
+++ b/UTH_UK_AssesmentPortal/target/classes/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="10680" windowHeight="6852"/>
   </bookViews>
   <sheets>
     <sheet name="Module_1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
   <si>
     <t>TestScript_13</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Darshanmj@2124</t>
+  </si>
+  <si>
+    <t>Darshanm</t>
   </si>
   <si>
     <t>TestScript_1</t>
@@ -136,8 +139,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -166,14 +169,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,9 +185,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,10 +212,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,6 +248,29 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,33 +283,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,44 +297,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -322,19 +325,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,67 +469,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,91 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,6 +682,17 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -697,13 +711,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,7 +730,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,30 +750,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -774,6 +768,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -782,18 +785,18 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,127 +806,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -948,7 +951,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1301,7 +1304,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5462962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1513,7 +1516,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -1525,7 +1528,7 @@
     <row r="26" ht="15.15"/>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1553,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>8</v>
@@ -1567,7 +1570,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>12</v>
@@ -1581,7 +1584,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>12</v>
@@ -1595,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>8</v>
@@ -1604,7 +1607,7 @@
     <row r="34" ht="15.15"/>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1621,16 +1624,16 @@
         <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>4</v>
@@ -1644,16 +1647,16 @@
         <v>19</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>8</v>
@@ -1667,16 +1670,16 @@
         <v>19</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -1690,16 +1693,16 @@
         <v>19</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>12</v>
@@ -1713,16 +1716,16 @@
         <v>19</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>8</v>
